--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.026276</v>
+        <v>0.0005253333333333333</v>
       </c>
       <c r="H2">
-        <v>0.078828</v>
+        <v>0.001576</v>
       </c>
       <c r="I2">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920845</v>
       </c>
       <c r="J2">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920846</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="N2">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="O2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="P2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="Q2">
-        <v>0.004414227861333333</v>
+        <v>0.0001080987155555555</v>
       </c>
       <c r="R2">
-        <v>0.039728050752</v>
+        <v>0.0009728884399999999</v>
       </c>
       <c r="S2">
-        <v>0.0009564255391382231</v>
+        <v>1.29296345964648E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009564255391382231</v>
+        <v>1.29296345964648E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.026276</v>
+        <v>0.0005253333333333333</v>
       </c>
       <c r="H3">
-        <v>0.078828</v>
+        <v>0.001576</v>
       </c>
       <c r="I3">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920845</v>
       </c>
       <c r="J3">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920846</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.002559</v>
       </c>
       <c r="O3">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="P3">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="Q3">
-        <v>0.008781080094666665</v>
+        <v>0.0001755592204444444</v>
       </c>
       <c r="R3">
-        <v>0.079029720852</v>
+        <v>0.001580032984</v>
       </c>
       <c r="S3">
-        <v>0.001902586256890849</v>
+        <v>2.099855265366491E-05</v>
       </c>
       <c r="T3">
-        <v>0.001902586256890849</v>
+        <v>2.099855265366492E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.026276</v>
+        <v>0.0005253333333333333</v>
       </c>
       <c r="H4">
-        <v>0.078828</v>
+        <v>0.001576</v>
       </c>
       <c r="I4">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920845</v>
       </c>
       <c r="J4">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920846</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="N4">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="O4">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="P4">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="Q4">
-        <v>0.01954040140133333</v>
+        <v>0.0002571914675555555</v>
       </c>
       <c r="R4">
-        <v>0.175863612612</v>
+        <v>0.002314723207999999</v>
       </c>
       <c r="S4">
-        <v>0.004233795701611667</v>
+        <v>3.07625458797689E-05</v>
       </c>
       <c r="T4">
-        <v>0.004233795701611667</v>
+        <v>3.076254587976891E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.026276</v>
+        <v>0.0005253333333333333</v>
       </c>
       <c r="H5">
-        <v>0.078828</v>
+        <v>0.001576</v>
       </c>
       <c r="I5">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920845</v>
       </c>
       <c r="J5">
-        <v>0.08755300739937756</v>
+        <v>0.001186555780920846</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="N5">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="O5">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="P5">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="Q5">
-        <v>0.3713510792013333</v>
+        <v>0.009379396593777777</v>
       </c>
       <c r="R5">
-        <v>3.342159712812</v>
+        <v>0.084414569344</v>
       </c>
       <c r="S5">
-        <v>0.08046019990173682</v>
+        <v>0.001121865047790947</v>
       </c>
       <c r="T5">
-        <v>0.08046019990173682</v>
+        <v>0.001121865047790947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.046232</v>
       </c>
       <c r="I6">
-        <v>0.05134914799421556</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="J6">
-        <v>0.05134914799421555</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="N6">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="O6">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="P6">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="Q6">
-        <v>0.002588909809777778</v>
+        <v>0.003171078564444445</v>
       </c>
       <c r="R6">
-        <v>0.023300188288</v>
+        <v>0.02853970708</v>
       </c>
       <c r="S6">
-        <v>0.0005609360319358393</v>
+        <v>0.0003792911590506097</v>
       </c>
       <c r="T6">
-        <v>0.0005609360319358392</v>
+        <v>0.0003792911590506097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.046232</v>
       </c>
       <c r="I7">
-        <v>0.05134914799421556</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="J7">
-        <v>0.05134914799421555</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.002559</v>
       </c>
       <c r="O7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="P7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="Q7">
         <v>0.005150034187555556</v>
@@ -883,10 +883,10 @@
         <v>0.046350307688</v>
       </c>
       <c r="S7">
-        <v>0.001115851827124597</v>
+        <v>0.0006159930750534496</v>
       </c>
       <c r="T7">
-        <v>0.001115851827124597</v>
+        <v>0.0006159930750534497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.046232</v>
       </c>
       <c r="I8">
-        <v>0.05134914799421556</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="J8">
-        <v>0.05134914799421555</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="N8">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="O8">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="P8">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="Q8">
-        <v>0.01146029123644445</v>
+        <v>0.007544718228444445</v>
       </c>
       <c r="R8">
-        <v>0.103142621128</v>
+        <v>0.06790246405599999</v>
       </c>
       <c r="S8">
-        <v>0.002483087771818524</v>
+        <v>0.0009024200641582971</v>
       </c>
       <c r="T8">
-        <v>0.002483087771818523</v>
+        <v>0.0009024200641582971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.046232</v>
       </c>
       <c r="I9">
-        <v>0.05134914799421556</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="J9">
-        <v>0.05134914799421555</v>
+        <v>0.03480764394894197</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="N9">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="O9">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="P9">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="Q9">
-        <v>0.2177944777697778</v>
+        <v>0.2751448371342222</v>
       </c>
       <c r="R9">
-        <v>1.960150299928</v>
+        <v>2.476303534208</v>
       </c>
       <c r="S9">
-        <v>0.0471892723633366</v>
+        <v>0.03290993965067961</v>
       </c>
       <c r="T9">
-        <v>0.04718927236333659</v>
+        <v>0.03290993965067961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03538233333333334</v>
+        <v>0.09537533333333333</v>
       </c>
       <c r="H10">
-        <v>0.106147</v>
+        <v>0.286126</v>
       </c>
       <c r="I10">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="J10">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="N10">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="O10">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="P10">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="Q10">
-        <v>0.005944043294222222</v>
+        <v>0.01962554129888889</v>
       </c>
       <c r="R10">
-        <v>0.053496389648</v>
+        <v>0.17662987169</v>
       </c>
       <c r="S10">
-        <v>0.001287888842833828</v>
+        <v>0.002347401414053356</v>
       </c>
       <c r="T10">
-        <v>0.001287888842833828</v>
+        <v>0.002347401414053356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.03538233333333334</v>
+        <v>0.09537533333333333</v>
       </c>
       <c r="H11">
-        <v>0.106147</v>
+        <v>0.286126</v>
       </c>
       <c r="I11">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="J11">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.002559</v>
       </c>
       <c r="O11">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="P11">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="Q11">
-        <v>0.01182429224144444</v>
+        <v>0.03187313293711111</v>
       </c>
       <c r="R11">
-        <v>0.106418630173</v>
+        <v>0.286858196434</v>
       </c>
       <c r="S11">
-        <v>0.002561955439820787</v>
+        <v>0.003812329870928</v>
       </c>
       <c r="T11">
-        <v>0.002561955439820787</v>
+        <v>0.003812329870928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.03538233333333334</v>
+        <v>0.09537533333333333</v>
       </c>
       <c r="H12">
-        <v>0.106147</v>
+        <v>0.286126</v>
       </c>
       <c r="I12">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="J12">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="N12">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="O12">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="P12">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="Q12">
-        <v>0.02631241421255556</v>
+        <v>0.04669363315088888</v>
       </c>
       <c r="R12">
-        <v>0.236811727913</v>
+        <v>0.4202426983579999</v>
       </c>
       <c r="S12">
-        <v>0.005701079722166916</v>
+        <v>0.005585002666494135</v>
       </c>
       <c r="T12">
-        <v>0.005701079722166915</v>
+        <v>0.005585002666494135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.03538233333333334</v>
+        <v>0.09537533333333333</v>
       </c>
       <c r="H13">
-        <v>0.106147</v>
+        <v>0.286126</v>
       </c>
       <c r="I13">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="J13">
-        <v>0.117895786730879</v>
+        <v>0.2154216112764961</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="N13">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="O13">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="P13">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="Q13">
-        <v>0.5000482443292222</v>
+        <v>1.702848496060444</v>
       </c>
       <c r="R13">
-        <v>4.500434198963</v>
+        <v>15.325636464544</v>
       </c>
       <c r="S13">
-        <v>0.1083448627260575</v>
+        <v>0.2036768773250206</v>
       </c>
       <c r="T13">
-        <v>0.1083448627260575</v>
+        <v>0.2036768773250206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2230463333333333</v>
+        <v>0.3314266666666667</v>
       </c>
       <c r="H14">
-        <v>0.669139</v>
+        <v>0.9942800000000001</v>
       </c>
       <c r="I14">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="J14">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="N14">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="O14">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="P14">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="Q14">
-        <v>0.03747059441955555</v>
+        <v>0.06819821757777778</v>
       </c>
       <c r="R14">
-        <v>0.337235349776</v>
+        <v>0.6137839582</v>
       </c>
       <c r="S14">
-        <v>0.008118709453917535</v>
+        <v>0.008157155511784916</v>
       </c>
       <c r="T14">
-        <v>0.008118709453917535</v>
+        <v>0.008157155511784916</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2230463333333333</v>
+        <v>0.3314266666666667</v>
       </c>
       <c r="H15">
-        <v>0.669139</v>
+        <v>0.9942800000000001</v>
       </c>
       <c r="I15">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="J15">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.002559</v>
       </c>
       <c r="O15">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="P15">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="Q15">
-        <v>0.07453903630011111</v>
+        <v>0.1107582625022222</v>
       </c>
       <c r="R15">
-        <v>0.670851326701</v>
+        <v>0.9968243625200001</v>
       </c>
       <c r="S15">
-        <v>0.01615028499200393</v>
+        <v>0.01324774170843017</v>
       </c>
       <c r="T15">
-        <v>0.01615028499200393</v>
+        <v>0.01324774170843018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2230463333333333</v>
+        <v>0.3314266666666667</v>
       </c>
       <c r="H16">
-        <v>0.669139</v>
+        <v>0.9942800000000001</v>
       </c>
       <c r="I16">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="J16">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="N16">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="O16">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="P16">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="Q16">
-        <v>0.1658705618978889</v>
+        <v>0.1622590941377778</v>
       </c>
       <c r="R16">
-        <v>1.492835057081</v>
+        <v>1.46033184724</v>
       </c>
       <c r="S16">
-        <v>0.03593897881438993</v>
+        <v>0.01940773103891918</v>
       </c>
       <c r="T16">
-        <v>0.03593897881438993</v>
+        <v>0.01940773103891918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2230463333333333</v>
+        <v>0.3314266666666667</v>
       </c>
       <c r="H17">
-        <v>0.669139</v>
+        <v>0.9942800000000001</v>
       </c>
       <c r="I17">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="J17">
-        <v>0.7432020578755278</v>
+        <v>0.7485841889936411</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="N17">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="O17">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="P17">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="Q17">
-        <v>3.152249071214555</v>
+        <v>5.91735180536889</v>
       </c>
       <c r="R17">
-        <v>28.370241640931</v>
+        <v>53.25616624832001</v>
       </c>
       <c r="S17">
-        <v>0.6829940846152165</v>
+        <v>0.7077715607345068</v>
       </c>
       <c r="T17">
-        <v>0.6829940846152165</v>
+        <v>0.7077715607345069</v>
       </c>
     </row>
   </sheetData>
